--- a/data/pca/factorExposure/factorExposure_2008-12-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-01.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01930037673279861</v>
+        <v>-0.017872538756733</v>
       </c>
       <c r="C2">
-        <v>-0.01226941863686129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01489949726263187</v>
+      </c>
+      <c r="D2">
+        <v>0.02089335382327954</v>
+      </c>
+      <c r="E2">
+        <v>0.01077878101643561</v>
+      </c>
+      <c r="F2">
+        <v>-0.00590667733204739</v>
+      </c>
+      <c r="G2">
+        <v>-0.02744648204258182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.08185461540529744</v>
+        <v>-0.08532320160624206</v>
       </c>
       <c r="C4">
-        <v>-0.08579988094138885</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08819840092491874</v>
+      </c>
+      <c r="D4">
+        <v>-0.01726903449587851</v>
+      </c>
+      <c r="E4">
+        <v>0.03208470089127979</v>
+      </c>
+      <c r="F4">
+        <v>0.1002032592695122</v>
+      </c>
+      <c r="G4">
+        <v>0.03868251075838638</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.005322564063737639</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.0003973709279957011</v>
+      </c>
+      <c r="D5">
+        <v>-0.001625732417552063</v>
+      </c>
+      <c r="E5">
+        <v>-0.004572408806051381</v>
+      </c>
+      <c r="F5">
+        <v>-0.002982453512184115</v>
+      </c>
+      <c r="G5">
+        <v>0.001153746281331198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.1673479969642966</v>
+        <v>-0.1690999875627912</v>
       </c>
       <c r="C6">
-        <v>0.01535116239200148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.007545689469161441</v>
+      </c>
+      <c r="D6">
+        <v>-0.07065744345452873</v>
+      </c>
+      <c r="E6">
+        <v>-0.07089786850649119</v>
+      </c>
+      <c r="F6">
+        <v>0.02957831027425583</v>
+      </c>
+      <c r="G6">
+        <v>-0.1571035787416126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.05197519521889947</v>
+        <v>-0.0540649590459945</v>
       </c>
       <c r="C7">
-        <v>-0.05748859788575616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.05951893316513907</v>
+      </c>
+      <c r="D7">
+        <v>0.0007763567213947046</v>
+      </c>
+      <c r="E7">
+        <v>0.09555910237462857</v>
+      </c>
+      <c r="F7">
+        <v>0.08070014103323121</v>
+      </c>
+      <c r="G7">
+        <v>0.02410106010679691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.04955741560491426</v>
+        <v>-0.04794623634115038</v>
       </c>
       <c r="C8">
-        <v>-0.06422348212084959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.06140898352920086</v>
+      </c>
+      <c r="D8">
+        <v>0.04824833452721169</v>
+      </c>
+      <c r="E8">
+        <v>0.02851333898712147</v>
+      </c>
+      <c r="F8">
+        <v>-0.0209692428521113</v>
+      </c>
+      <c r="G8">
+        <v>0.004863061618779549</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.05689818569068176</v>
+        <v>-0.06208976973489707</v>
       </c>
       <c r="C9">
-        <v>-0.09633862035805733</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09622243690616898</v>
+      </c>
+      <c r="D9">
+        <v>-0.02015728352012926</v>
+      </c>
+      <c r="E9">
+        <v>0.0329486237399795</v>
+      </c>
+      <c r="F9">
+        <v>0.1024414569910716</v>
+      </c>
+      <c r="G9">
+        <v>0.05852894263179817</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.1206801135876936</v>
+        <v>-0.1046258893697516</v>
       </c>
       <c r="C10">
-        <v>0.1567496773567676</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1391533005123163</v>
+      </c>
+      <c r="D10">
+        <v>0.08191241311923153</v>
+      </c>
+      <c r="E10">
+        <v>0.01957887876531613</v>
+      </c>
+      <c r="F10">
+        <v>-0.04684794811375323</v>
+      </c>
+      <c r="G10">
+        <v>0.06653308398086978</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.08042766431572597</v>
+        <v>-0.07763750583950145</v>
       </c>
       <c r="C11">
-        <v>-0.1361810775402331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1347969372930203</v>
+      </c>
+      <c r="D11">
+        <v>0.01373638609381225</v>
+      </c>
+      <c r="E11">
+        <v>0.03875112571193443</v>
+      </c>
+      <c r="F11">
+        <v>0.07965788425268855</v>
+      </c>
+      <c r="G11">
+        <v>0.09991327145656533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.08085852662123814</v>
+        <v>-0.07709223524067566</v>
       </c>
       <c r="C12">
-        <v>-0.1614784905396785</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.159494898467361</v>
+      </c>
+      <c r="D12">
+        <v>0.006767306301703233</v>
+      </c>
+      <c r="E12">
+        <v>0.06019726197382818</v>
+      </c>
+      <c r="F12">
+        <v>0.06825043483791382</v>
+      </c>
+      <c r="G12">
+        <v>0.09537863366751005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.04216005437747451</v>
+        <v>-0.04440614933112696</v>
       </c>
       <c r="C13">
-        <v>-0.07057326948503009</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.0750842022557464</v>
+      </c>
+      <c r="D13">
+        <v>0.01977605349570889</v>
+      </c>
+      <c r="E13">
+        <v>0.07324239439816166</v>
+      </c>
+      <c r="F13">
+        <v>0.05748151976574337</v>
+      </c>
+      <c r="G13">
+        <v>0.03157193492975197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01832673368888681</v>
+        <v>-0.02091398737400155</v>
       </c>
       <c r="C14">
-        <v>-0.04930030641324894</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.0521334081486816</v>
+      </c>
+      <c r="D14">
+        <v>0.03149694291687588</v>
+      </c>
+      <c r="E14">
+        <v>0.03048011233084858</v>
+      </c>
+      <c r="F14">
+        <v>0.05992399365866313</v>
+      </c>
+      <c r="G14">
+        <v>0.05503688881239706</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>-0.03094550579637098</v>
+        <v>-0.03117257578988504</v>
       </c>
       <c r="C15">
-        <v>-0.06521287139744497</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.06280929600181068</v>
+      </c>
+      <c r="D15">
+        <v>-0.02687924992116376</v>
+      </c>
+      <c r="E15">
+        <v>0.03937608640705745</v>
+      </c>
+      <c r="F15">
+        <v>0.03282674241940086</v>
+      </c>
+      <c r="G15">
+        <v>0.02007890478271973</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.05933009623393862</v>
+        <v>-0.05701740017016704</v>
       </c>
       <c r="C16">
-        <v>-0.1563159267305665</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1555140500065593</v>
+      </c>
+      <c r="D16">
+        <v>0.01056588206123647</v>
+      </c>
+      <c r="E16">
+        <v>0.01964135917119415</v>
+      </c>
+      <c r="F16">
+        <v>0.07368180417253245</v>
+      </c>
+      <c r="G16">
+        <v>0.1213445231505695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.00899919532256648</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.004448950029481777</v>
+      </c>
+      <c r="D17">
+        <v>-0.005007183657937461</v>
+      </c>
+      <c r="E17">
+        <v>0.004398670653379746</v>
+      </c>
+      <c r="F17">
+        <v>-0.0171889859126038</v>
+      </c>
+      <c r="G17">
+        <v>0.002921268500788574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>-0.04992766576067383</v>
+        <v>-0.05887544144167967</v>
       </c>
       <c r="C18">
-        <v>-0.05534577432245297</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04953182132722043</v>
+      </c>
+      <c r="D18">
+        <v>-0.03221580496112599</v>
+      </c>
+      <c r="E18">
+        <v>-0.06089399069538653</v>
+      </c>
+      <c r="F18">
+        <v>-0.04445006738732572</v>
+      </c>
+      <c r="G18">
+        <v>-0.1994513831823252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.06100387432225371</v>
+        <v>-0.0597854373035441</v>
       </c>
       <c r="C20">
-        <v>-0.1112090165485567</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.1078199567895412</v>
+      </c>
+      <c r="D20">
+        <v>-0.01092057125002805</v>
+      </c>
+      <c r="E20">
+        <v>0.05441697257724733</v>
+      </c>
+      <c r="F20">
+        <v>0.06233729212124454</v>
+      </c>
+      <c r="G20">
+        <v>0.0539435403987434</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.04498177070447815</v>
+        <v>-0.04680477285089567</v>
       </c>
       <c r="C21">
-        <v>-0.07219330910884837</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.0680255461169645</v>
+      </c>
+      <c r="D21">
+        <v>0.01087845744640664</v>
+      </c>
+      <c r="E21">
+        <v>0.02719271603420911</v>
+      </c>
+      <c r="F21">
+        <v>0.06698125951733049</v>
+      </c>
+      <c r="G21">
+        <v>0.08374665815688404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.04430413207309388</v>
+        <v>-0.04446865687955706</v>
       </c>
       <c r="C22">
-        <v>-0.03999223609944695</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04444744519814374</v>
+      </c>
+      <c r="D22">
+        <v>0.09314867721494234</v>
+      </c>
+      <c r="E22">
+        <v>-0.1744930661932209</v>
+      </c>
+      <c r="F22">
+        <v>-0.09597172673541762</v>
+      </c>
+      <c r="G22">
+        <v>0.03356875338515117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.04431452119759551</v>
+        <v>-0.04447770365052538</v>
       </c>
       <c r="C23">
-        <v>-0.03998505446552605</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04444127672090058</v>
+      </c>
+      <c r="D23">
+        <v>0.09319488411966065</v>
+      </c>
+      <c r="E23">
+        <v>-0.1745283870730996</v>
+      </c>
+      <c r="F23">
+        <v>-0.09602982005602013</v>
+      </c>
+      <c r="G23">
+        <v>0.03357676873482359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.06559209883058177</v>
+        <v>-0.06415098598656666</v>
       </c>
       <c r="C24">
-        <v>-0.1401571002478018</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.1363680850545731</v>
+      </c>
+      <c r="D24">
+        <v>0.007128304103422645</v>
+      </c>
+      <c r="E24">
+        <v>0.03875549259632459</v>
+      </c>
+      <c r="F24">
+        <v>0.07326172832670884</v>
+      </c>
+      <c r="G24">
+        <v>0.06205356803491463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.07524568182745403</v>
+        <v>-0.07218333006544493</v>
       </c>
       <c r="C25">
-        <v>-0.1188376780050744</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1172950584367797</v>
+      </c>
+      <c r="D25">
+        <v>0.00954448467013576</v>
+      </c>
+      <c r="E25">
+        <v>0.07061198613009777</v>
+      </c>
+      <c r="F25">
+        <v>0.08391299687681839</v>
+      </c>
+      <c r="G25">
+        <v>0.08599936058371506</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.06051588911978361</v>
+        <v>-0.0637526435080846</v>
       </c>
       <c r="C26">
-        <v>-0.07096977504029907</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.07491699603405892</v>
+      </c>
+      <c r="D26">
+        <v>0.03167599905678626</v>
+      </c>
+      <c r="E26">
+        <v>0.07150399120208918</v>
+      </c>
+      <c r="F26">
+        <v>0.0583820871367467</v>
+      </c>
+      <c r="G26">
+        <v>0.1218634713986669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1694698749988141</v>
+        <v>-0.1741936019408524</v>
       </c>
       <c r="C28">
-        <v>0.2296214189389027</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2323264136686254</v>
+      </c>
+      <c r="D28">
+        <v>0.08504933806741384</v>
+      </c>
+      <c r="E28">
+        <v>0.120499871309505</v>
+      </c>
+      <c r="F28">
+        <v>0.04949800088283528</v>
+      </c>
+      <c r="G28">
+        <v>0.09427157835628533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.02626698253841175</v>
+        <v>-0.02754473812439151</v>
       </c>
       <c r="C29">
-        <v>-0.05578400045236956</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.05616173359014812</v>
+      </c>
+      <c r="D29">
+        <v>0.04901496875436873</v>
+      </c>
+      <c r="E29">
+        <v>0.02441365870521941</v>
+      </c>
+      <c r="F29">
+        <v>0.04700278036817796</v>
+      </c>
+      <c r="G29">
+        <v>0.04619786229187964</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02788061356728279</v>
+        <v>-0.03196327248752624</v>
       </c>
       <c r="C30">
-        <v>-0.0696375452347911</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07499334453855942</v>
+      </c>
+      <c r="D30">
+        <v>-0.04636089465220263</v>
+      </c>
+      <c r="E30">
+        <v>0.1097013992853309</v>
+      </c>
+      <c r="F30">
+        <v>0.08808840540061975</v>
+      </c>
+      <c r="G30">
+        <v>0.02199466404094303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05583489328635662</v>
+        <v>-0.05445910598535766</v>
       </c>
       <c r="C31">
-        <v>-0.03391776550931799</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03655316639613646</v>
+      </c>
+      <c r="D31">
+        <v>0.02271566363023679</v>
+      </c>
+      <c r="E31">
+        <v>-0.041764110373036</v>
+      </c>
+      <c r="F31">
+        <v>0.03466989465704898</v>
+      </c>
+      <c r="G31">
+        <v>0.03749053176802994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.04135059199556798</v>
+        <v>-0.04534902932765858</v>
       </c>
       <c r="C32">
-        <v>-0.05349612902324517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.05028157197715815</v>
+      </c>
+      <c r="D32">
+        <v>-0.007857079695095996</v>
+      </c>
+      <c r="E32">
+        <v>0.04381878594209583</v>
+      </c>
+      <c r="F32">
+        <v>0.001306801252523066</v>
+      </c>
+      <c r="G32">
+        <v>0.03837432083710521</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.07854339297047493</v>
+        <v>-0.08227375934285025</v>
       </c>
       <c r="C33">
-        <v>-0.1176506263027921</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1257661012688326</v>
+      </c>
+      <c r="D33">
+        <v>0.02012098000485329</v>
+      </c>
+      <c r="E33">
+        <v>0.03774856917365703</v>
+      </c>
+      <c r="F33">
+        <v>0.04770081554996174</v>
+      </c>
+      <c r="G33">
+        <v>0.02542125004336681</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05219813035941216</v>
+        <v>-0.05147323964675878</v>
       </c>
       <c r="C34">
-        <v>-0.1260666242249362</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.124931557634719</v>
+      </c>
+      <c r="D34">
+        <v>-0.01233554875233051</v>
+      </c>
+      <c r="E34">
+        <v>0.01868703400521766</v>
+      </c>
+      <c r="F34">
+        <v>0.0541999782224049</v>
+      </c>
+      <c r="G34">
+        <v>0.1480836785536706</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>-0.02635314537382476</v>
+        <v>-0.02872316156910106</v>
       </c>
       <c r="C35">
-        <v>-0.01663501123432792</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.01985670873550421</v>
+      </c>
+      <c r="D35">
+        <v>0.00801576394020577</v>
+      </c>
+      <c r="E35">
+        <v>0.01826427918567687</v>
+      </c>
+      <c r="F35">
+        <v>0.004105881369401859</v>
+      </c>
+      <c r="G35">
+        <v>0.04191802062735856</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.026385025163386</v>
+        <v>-0.02874526866639735</v>
       </c>
       <c r="C36">
-        <v>-0.05322236114448844</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.05127662534572156</v>
+      </c>
+      <c r="D36">
+        <v>-0.02125884381673801</v>
+      </c>
+      <c r="E36">
+        <v>-0.02094305752967212</v>
+      </c>
+      <c r="F36">
+        <v>0.01001705806719354</v>
+      </c>
+      <c r="G36">
+        <v>0.1049958142553828</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>-0.0004722080825745412</v>
+        <v>-0.005101553232157218</v>
       </c>
       <c r="C37">
-        <v>0.0004093145713999568</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.006546362986681062</v>
+      </c>
+      <c r="D37">
+        <v>0.008077208819080924</v>
+      </c>
+      <c r="E37">
+        <v>0.007217992691074554</v>
+      </c>
+      <c r="F37">
+        <v>0.01259894379091301</v>
+      </c>
+      <c r="G37">
+        <v>-0.004607632223583624</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.08271303739518222</v>
+        <v>-0.07722450879575281</v>
       </c>
       <c r="C39">
-        <v>-0.1422967884022688</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1368235034576813</v>
+      </c>
+      <c r="D39">
+        <v>0.0637515695310117</v>
+      </c>
+      <c r="E39">
+        <v>0.04998787887478156</v>
+      </c>
+      <c r="F39">
+        <v>0.0909092756852857</v>
+      </c>
+      <c r="G39">
+        <v>0.1638432976700231</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.05466152663756257</v>
+        <v>-0.0560875994612834</v>
       </c>
       <c r="C40">
-        <v>-0.07871530304420735</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08453850151597497</v>
+      </c>
+      <c r="D40">
+        <v>0.0135560718360159</v>
+      </c>
+      <c r="E40">
+        <v>0.06659277292456731</v>
+      </c>
+      <c r="F40">
+        <v>-0.0224347320523209</v>
+      </c>
+      <c r="G40">
+        <v>0.02966233304060754</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.03144817419465418</v>
+        <v>-0.03090630988641029</v>
       </c>
       <c r="C41">
-        <v>-0.02544657218912985</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02737386956600642</v>
+      </c>
+      <c r="D41">
+        <v>-0.0007596202537574281</v>
+      </c>
+      <c r="E41">
+        <v>0.004798495036942131</v>
+      </c>
+      <c r="F41">
+        <v>-0.02011884428411522</v>
+      </c>
+      <c r="G41">
+        <v>0.01193560675232246</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04572454572197748</v>
+        <v>-0.04318594476093966</v>
       </c>
       <c r="C43">
-        <v>-0.04249031759844486</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.04011926848281884</v>
+      </c>
+      <c r="D43">
+        <v>0.03874015272508389</v>
+      </c>
+      <c r="E43">
+        <v>-0.02779029452893564</v>
+      </c>
+      <c r="F43">
+        <v>0.004493435527874378</v>
+      </c>
+      <c r="G43">
+        <v>0.05203349795700767</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.05582090771480377</v>
+        <v>-0.05981015080187397</v>
       </c>
       <c r="C44">
-        <v>-0.1021650635522542</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.103132002725246</v>
+      </c>
+      <c r="D44">
+        <v>-0.08708450815702876</v>
+      </c>
+      <c r="E44">
+        <v>0.08169799003290902</v>
+      </c>
+      <c r="F44">
+        <v>0.1023242104333716</v>
+      </c>
+      <c r="G44">
+        <v>0.1250503618639075</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0009800713167012996</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.0006017399974268405</v>
+      </c>
+      <c r="D45">
+        <v>0.0006900804112118578</v>
+      </c>
+      <c r="E45">
+        <v>-0.000901841347579017</v>
+      </c>
+      <c r="F45">
+        <v>0.00720396867123652</v>
+      </c>
+      <c r="G45">
+        <v>-0.006639909822813474</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0296877442825425</v>
+        <v>-0.03008749611245276</v>
       </c>
       <c r="C46">
-        <v>-0.04349793565106039</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.04196476124913626</v>
+      </c>
+      <c r="D46">
+        <v>0.05859128768243312</v>
+      </c>
+      <c r="E46">
+        <v>0.00594468833494573</v>
+      </c>
+      <c r="F46">
+        <v>0.04815345387334233</v>
+      </c>
+      <c r="G46">
+        <v>0.06387511913928295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.05859684678006213</v>
+        <v>-0.05583644038666118</v>
       </c>
       <c r="C47">
-        <v>-0.04651553726759012</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.04502825596966541</v>
+      </c>
+      <c r="D47">
+        <v>0.03860788238361215</v>
+      </c>
+      <c r="E47">
+        <v>-0.09935106576163764</v>
+      </c>
+      <c r="F47">
+        <v>-0.02104003321889104</v>
+      </c>
+      <c r="G47">
+        <v>-0.03846041116644897</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.04928003286744675</v>
+        <v>-0.05076447780080997</v>
       </c>
       <c r="C48">
-        <v>-0.06605708021926354</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.06592850848380541</v>
+      </c>
+      <c r="D48">
+        <v>0.007328127060923529</v>
+      </c>
+      <c r="E48">
+        <v>0.03651107552064697</v>
+      </c>
+      <c r="F48">
+        <v>0.08302220017160637</v>
+      </c>
+      <c r="G48">
+        <v>0.02848428325341438</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>-0.1802008401314191</v>
+        <v>-0.1882476482151325</v>
       </c>
       <c r="C49">
-        <v>0.02905178969833805</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02498922178629907</v>
+      </c>
+      <c r="D49">
+        <v>-0.06775848913648889</v>
+      </c>
+      <c r="E49">
+        <v>0.1062320096018062</v>
+      </c>
+      <c r="F49">
+        <v>-0.005296188943761195</v>
+      </c>
+      <c r="G49">
+        <v>-0.1366089959612624</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.05498220461454442</v>
+        <v>-0.05446177895445836</v>
       </c>
       <c r="C50">
-        <v>-0.03323953532574687</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.0361772833252347</v>
+      </c>
+      <c r="D50">
+        <v>0.003423362571668006</v>
+      </c>
+      <c r="E50">
+        <v>-0.03707464386619796</v>
+      </c>
+      <c r="F50">
+        <v>0.04748861348990965</v>
+      </c>
+      <c r="G50">
+        <v>0.02664324526407173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>-0.1404678853707548</v>
+        <v>-0.1362583209791277</v>
       </c>
       <c r="C52">
-        <v>-0.03504216723968883</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03223045946647556</v>
+      </c>
+      <c r="D52">
+        <v>-0.05965441062972798</v>
+      </c>
+      <c r="E52">
+        <v>-0.1457041326385036</v>
+      </c>
+      <c r="F52">
+        <v>0.0379155852397824</v>
+      </c>
+      <c r="G52">
+        <v>0.05500793739890705</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.1665274503283634</v>
+        <v>-0.1608262618002119</v>
       </c>
       <c r="C53">
-        <v>0.01060573817113228</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.009427856614148552</v>
+      </c>
+      <c r="D53">
+        <v>-0.0878123488619981</v>
+      </c>
+      <c r="E53">
+        <v>-0.1923578699494616</v>
+      </c>
+      <c r="F53">
+        <v>0.05155619440599506</v>
+      </c>
+      <c r="G53">
+        <v>-0.04483133814560828</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01443435337044504</v>
+        <v>-0.01533363203848224</v>
       </c>
       <c r="C54">
-        <v>-0.04410368464924003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.04402326885628439</v>
+      </c>
+      <c r="D54">
+        <v>0.01529581618122535</v>
+      </c>
+      <c r="E54">
+        <v>0.02689233303680668</v>
+      </c>
+      <c r="F54">
+        <v>0.04767467301783302</v>
+      </c>
+      <c r="G54">
+        <v>0.07495186120129464</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.1217560876991926</v>
+        <v>-0.1202495950905694</v>
       </c>
       <c r="C55">
-        <v>-0.01244164282962027</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01272482391238589</v>
+      </c>
+      <c r="D55">
+        <v>-0.03305129299048579</v>
+      </c>
+      <c r="E55">
+        <v>-0.1886062506552788</v>
+      </c>
+      <c r="F55">
+        <v>0.0801207565094551</v>
+      </c>
+      <c r="G55">
+        <v>0.06798281409466746</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1805029187595898</v>
+        <v>-0.1758458438919117</v>
       </c>
       <c r="C56">
-        <v>0.01031981993348962</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01218034705366142</v>
+      </c>
+      <c r="D56">
+        <v>-0.09687106117453741</v>
+      </c>
+      <c r="E56">
+        <v>-0.2168060053780411</v>
+      </c>
+      <c r="F56">
+        <v>0.02485022977490529</v>
+      </c>
+      <c r="G56">
+        <v>-0.04106663323300813</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0407424086765211</v>
+        <v>-0.04083959778054577</v>
       </c>
       <c r="C58">
-        <v>-0.09929754952549717</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1097588610032125</v>
+      </c>
+      <c r="D58">
+        <v>0.04254967339317835</v>
+      </c>
+      <c r="E58">
+        <v>0.02345733764074233</v>
+      </c>
+      <c r="F58">
+        <v>0.02945108721808321</v>
+      </c>
+      <c r="G58">
+        <v>0.0491590847999395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1793384049478619</v>
+        <v>-0.1857358427683538</v>
       </c>
       <c r="C59">
-        <v>0.167177144584584</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1735705332514041</v>
+      </c>
+      <c r="D59">
+        <v>0.1057792131179814</v>
+      </c>
+      <c r="E59">
+        <v>0.0561010490882352</v>
+      </c>
+      <c r="F59">
+        <v>-0.01248892465402467</v>
+      </c>
+      <c r="G59">
+        <v>0.08010359936751234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2069915254686996</v>
+        <v>-0.205242538776971</v>
       </c>
       <c r="C60">
-        <v>-0.006727558972125475</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.009778975204242866</v>
+      </c>
+      <c r="D60">
+        <v>-0.07208963369455794</v>
+      </c>
+      <c r="E60">
+        <v>-0.009297394333242309</v>
+      </c>
+      <c r="F60">
+        <v>-0.07214211404606184</v>
+      </c>
+      <c r="G60">
+        <v>-0.2073985724668454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0591371396514412</v>
+        <v>-0.05808374198451092</v>
       </c>
       <c r="C61">
-        <v>-0.1273003151153348</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1234129312201678</v>
+      </c>
+      <c r="D61">
+        <v>0.03276062358725342</v>
+      </c>
+      <c r="E61">
+        <v>0.07167956793624142</v>
+      </c>
+      <c r="F61">
+        <v>0.05401582112113937</v>
+      </c>
+      <c r="G61">
+        <v>0.1102056335599049</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>-0.169834732836936</v>
+        <v>-0.1663261782247411</v>
       </c>
       <c r="C62">
-        <v>0.002140951273034068</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.003745409030636693</v>
+      </c>
+      <c r="D62">
+        <v>-0.06885169509127891</v>
+      </c>
+      <c r="E62">
+        <v>-0.1958930311200061</v>
+      </c>
+      <c r="F62">
+        <v>0.01573575867064436</v>
+      </c>
+      <c r="G62">
+        <v>0.01584812021258004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.04315578243444657</v>
+        <v>-0.04542892796172765</v>
       </c>
       <c r="C63">
-        <v>-0.07630280518884794</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.08024826736656064</v>
+      </c>
+      <c r="D63">
+        <v>0.01905005012736407</v>
+      </c>
+      <c r="E63">
+        <v>0.02844493600447617</v>
+      </c>
+      <c r="F63">
+        <v>0.01425768350311044</v>
+      </c>
+      <c r="G63">
+        <v>0.1024098722879308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.1144742756777155</v>
+        <v>-0.1124430375073028</v>
       </c>
       <c r="C64">
-        <v>-0.0609564861064552</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.06206568803202788</v>
+      </c>
+      <c r="D64">
+        <v>-0.05653219456661971</v>
+      </c>
+      <c r="E64">
+        <v>-0.01199256719344543</v>
+      </c>
+      <c r="F64">
+        <v>0.004843180762690332</v>
+      </c>
+      <c r="G64">
+        <v>-0.02376651446536625</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.1549217978587016</v>
+        <v>-0.1584921780763708</v>
       </c>
       <c r="C65">
-        <v>0.05806120664424715</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04660489307096534</v>
+      </c>
+      <c r="D65">
+        <v>-0.02362538793887027</v>
+      </c>
+      <c r="E65">
+        <v>-0.0497384125171526</v>
+      </c>
+      <c r="F65">
+        <v>0.04991018179295217</v>
+      </c>
+      <c r="G65">
+        <v>-0.1557843373772533</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.09841776734511726</v>
+        <v>-0.09393010158391472</v>
       </c>
       <c r="C66">
-        <v>-0.1264366009348848</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1244838541649118</v>
+      </c>
+      <c r="D66">
+        <v>0.03640343571497418</v>
+      </c>
+      <c r="E66">
+        <v>0.05797759203344235</v>
+      </c>
+      <c r="F66">
+        <v>0.06330592168281007</v>
+      </c>
+      <c r="G66">
+        <v>0.1525936302013895</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05119593054678451</v>
+        <v>-0.04442151506935897</v>
       </c>
       <c r="C67">
-        <v>-0.07899522392277158</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07216015986905894</v>
+      </c>
+      <c r="D67">
+        <v>0.03858453412608247</v>
+      </c>
+      <c r="E67">
+        <v>-0.07180585981730157</v>
+      </c>
+      <c r="F67">
+        <v>-0.03924959558499884</v>
+      </c>
+      <c r="G67">
+        <v>0.01384074098248707</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1465552946524097</v>
+        <v>-0.1467777490004592</v>
       </c>
       <c r="C68">
-        <v>0.2609064905377529</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2544328531518258</v>
+      </c>
+      <c r="D68">
+        <v>0.06373550247652918</v>
+      </c>
+      <c r="E68">
+        <v>0.1243839364685112</v>
+      </c>
+      <c r="F68">
+        <v>0.0923730625795211</v>
+      </c>
+      <c r="G68">
+        <v>0.02735251396623541</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03834974248947486</v>
+        <v>-0.036154429332006</v>
       </c>
       <c r="C69">
-        <v>-0.02479849955978455</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.02791306697550393</v>
+      </c>
+      <c r="D69">
+        <v>-0.007188413978297331</v>
+      </c>
+      <c r="E69">
+        <v>-0.06463667956366785</v>
+      </c>
+      <c r="F69">
+        <v>-0.03160293033684751</v>
+      </c>
+      <c r="G69">
+        <v>0.02723803744569433</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>-0.07762206951800539</v>
+        <v>-0.0761203323076643</v>
       </c>
       <c r="C70">
-        <v>-0.1074831262307144</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.1090412682962313</v>
+      </c>
+      <c r="D70">
+        <v>0.05566360267660006</v>
+      </c>
+      <c r="E70">
+        <v>0.1012951802243621</v>
+      </c>
+      <c r="F70">
+        <v>-0.008179418134773499</v>
+      </c>
+      <c r="G70">
+        <v>-0.02832742351096259</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1678784022349805</v>
+        <v>-0.1701211809623053</v>
       </c>
       <c r="C71">
-        <v>0.2607732051219721</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2580330764067567</v>
+      </c>
+      <c r="D71">
+        <v>0.07587040460684001</v>
+      </c>
+      <c r="E71">
+        <v>0.1378524881419927</v>
+      </c>
+      <c r="F71">
+        <v>0.08019135375457175</v>
+      </c>
+      <c r="G71">
+        <v>0.007596657294198534</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.1426245726367574</v>
+        <v>-0.1481898241156555</v>
       </c>
       <c r="C72">
-        <v>-0.00945413563833707</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.008015512579351743</v>
+      </c>
+      <c r="D72">
+        <v>-0.01113890956956266</v>
+      </c>
+      <c r="E72">
+        <v>-0.1199093773258743</v>
+      </c>
+      <c r="F72">
+        <v>0.01051071962441784</v>
+      </c>
+      <c r="G72">
+        <v>0.0331782338204336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.1842974825417929</v>
+        <v>-0.1948196625324115</v>
       </c>
       <c r="C73">
-        <v>-0.02932517692003794</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.03187688917799117</v>
+      </c>
+      <c r="D73">
+        <v>-0.06400585167514372</v>
+      </c>
+      <c r="E73">
+        <v>-0.0317683736887323</v>
+      </c>
+      <c r="F73">
+        <v>-0.0509706213758515</v>
+      </c>
+      <c r="G73">
+        <v>-0.04357388721649586</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.07997496633963888</v>
+        <v>-0.08052716967717187</v>
       </c>
       <c r="C74">
-        <v>-0.00348555597300281</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.009511314367624788</v>
+      </c>
+      <c r="D74">
+        <v>-0.08526298496131293</v>
+      </c>
+      <c r="E74">
+        <v>-0.09551040443380263</v>
+      </c>
+      <c r="F74">
+        <v>0.01047986397744969</v>
+      </c>
+      <c r="G74">
+        <v>-0.01331537039484285</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.120354900438402</v>
+        <v>-0.1133312695890869</v>
       </c>
       <c r="C75">
-        <v>-0.0308659056178358</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.03122847251828994</v>
+      </c>
+      <c r="D75">
+        <v>-0.02800761310305108</v>
+      </c>
+      <c r="E75">
+        <v>-0.1899847200429692</v>
+      </c>
+      <c r="F75">
+        <v>0.007032864837619863</v>
+      </c>
+      <c r="G75">
+        <v>-0.004053032141696199</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08169462978171634</v>
+        <v>-0.08890871443564101</v>
       </c>
       <c r="C77">
-        <v>-0.1132979009433971</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1202912757194586</v>
+      </c>
+      <c r="D77">
+        <v>-0.006477382503030807</v>
+      </c>
+      <c r="E77">
+        <v>0.1017857316828498</v>
+      </c>
+      <c r="F77">
+        <v>0.1388815529666864</v>
+      </c>
+      <c r="G77">
+        <v>-0.1653834855932486</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.07302170890380731</v>
+        <v>-0.07993723461385993</v>
       </c>
       <c r="C78">
-        <v>-0.1427491008866085</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1461786291759155</v>
+      </c>
+      <c r="D78">
+        <v>0.07793956291597273</v>
+      </c>
+      <c r="E78">
+        <v>-0.009952491504887187</v>
+      </c>
+      <c r="F78">
+        <v>0.08951668938253361</v>
+      </c>
+      <c r="G78">
+        <v>-0.2288145141202413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>-0.1700893210762837</v>
+        <v>-0.165432232027844</v>
       </c>
       <c r="C79">
-        <v>-0.02866898641366628</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02707192545558345</v>
+      </c>
+      <c r="D79">
+        <v>-0.01876435684362313</v>
+      </c>
+      <c r="E79">
+        <v>-0.1598505877275245</v>
+      </c>
+      <c r="F79">
+        <v>0.02264105508663829</v>
+      </c>
+      <c r="G79">
+        <v>-0.001421685732747477</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.07844313570774883</v>
+        <v>-0.07408046283557393</v>
       </c>
       <c r="C80">
-        <v>-0.08194704661975924</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.07758728529433614</v>
+      </c>
+      <c r="D80">
+        <v>0.03971289272575133</v>
+      </c>
+      <c r="E80">
+        <v>0.08363868071604091</v>
+      </c>
+      <c r="F80">
+        <v>-0.04438118665734428</v>
+      </c>
+      <c r="G80">
+        <v>0.1231440291566094</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1092923354953488</v>
+        <v>-0.1033804410658314</v>
       </c>
       <c r="C81">
-        <v>0.01165915918128677</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.01063468433714976</v>
+      </c>
+      <c r="D81">
+        <v>-0.01190468227483547</v>
+      </c>
+      <c r="E81">
+        <v>-0.1816157189853954</v>
+      </c>
+      <c r="F81">
+        <v>-0.046960490976104</v>
+      </c>
+      <c r="G81">
+        <v>-0.001615838863479269</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1630502645974805</v>
+        <v>-0.1590672364835337</v>
       </c>
       <c r="C82">
-        <v>0.01774175956472152</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01520023086154784</v>
+      </c>
+      <c r="D82">
+        <v>-0.1204360130642302</v>
+      </c>
+      <c r="E82">
+        <v>-0.1777677307071316</v>
+      </c>
+      <c r="F82">
+        <v>0.01636593449378208</v>
+      </c>
+      <c r="G82">
+        <v>-0.03467749548701522</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.05372401209678666</v>
+        <v>-0.05074053345039461</v>
       </c>
       <c r="C83">
-        <v>-0.06164052176338013</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.05547614382737587</v>
+      </c>
+      <c r="D83">
+        <v>0.01809316819104416</v>
+      </c>
+      <c r="E83">
+        <v>0.01580926286366535</v>
+      </c>
+      <c r="F83">
+        <v>-0.01365036024090938</v>
+      </c>
+      <c r="G83">
+        <v>0.05884048765282909</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>-0.04814200916355699</v>
+        <v>-0.04734776821577918</v>
       </c>
       <c r="C84">
-        <v>-0.07718365682821281</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07524077352775306</v>
+      </c>
+      <c r="D84">
+        <v>0.01577557492378402</v>
+      </c>
+      <c r="E84">
+        <v>-0.01305059424991553</v>
+      </c>
+      <c r="F84">
+        <v>0.03552552656367868</v>
+      </c>
+      <c r="G84">
+        <v>0.06550196335322371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1389432440540964</v>
+        <v>-0.1341923154446235</v>
       </c>
       <c r="C85">
-        <v>-0.00839535885738758</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.007699153235700439</v>
+      </c>
+      <c r="D85">
+        <v>-0.05583767435421909</v>
+      </c>
+      <c r="E85">
+        <v>-0.1577738532709086</v>
+      </c>
+      <c r="F85">
+        <v>0.06065456978933387</v>
+      </c>
+      <c r="G85">
+        <v>0.01580471022821742</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.08514013133101066</v>
+        <v>-0.0849270618298489</v>
       </c>
       <c r="C86">
-        <v>-0.1476080072245838</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.15473140479877</v>
+      </c>
+      <c r="D86">
+        <v>0.8433807787999876</v>
+      </c>
+      <c r="E86">
+        <v>-0.1034053899383448</v>
+      </c>
+      <c r="F86">
+        <v>-0.2709547792659872</v>
+      </c>
+      <c r="G86">
+        <v>-0.09378504825220933</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.0843837188397181</v>
+        <v>-0.08013068365086985</v>
       </c>
       <c r="C87">
-        <v>-0.1003794305629793</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.09663619116209533</v>
+      </c>
+      <c r="D87">
+        <v>-0.06778517563185511</v>
+      </c>
+      <c r="E87">
+        <v>0.2795190927251064</v>
+      </c>
+      <c r="F87">
+        <v>0.05689573376226846</v>
+      </c>
+      <c r="G87">
+        <v>0.04022453465874298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.06014585715942288</v>
+        <v>-0.05945095175426753</v>
       </c>
       <c r="C88">
-        <v>-0.06548449431726169</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06532886209067544</v>
+      </c>
+      <c r="D88">
+        <v>-0.01871398591451115</v>
+      </c>
+      <c r="E88">
+        <v>-0.04299347958628671</v>
+      </c>
+      <c r="F88">
+        <v>0.006069230582795049</v>
+      </c>
+      <c r="G88">
+        <v>-0.01495243202529895</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1530210862018881</v>
+        <v>-0.1514177084229092</v>
       </c>
       <c r="C89">
-        <v>0.2044983451518485</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2099888706179148</v>
+      </c>
+      <c r="D89">
+        <v>0.0315110213498979</v>
+      </c>
+      <c r="E89">
+        <v>0.09357575097815762</v>
+      </c>
+      <c r="F89">
+        <v>0.04073337431754726</v>
+      </c>
+      <c r="G89">
+        <v>0.01813605051057699</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1868675433866696</v>
+        <v>-0.188212312371329</v>
       </c>
       <c r="C90">
-        <v>0.2452301108547834</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2442812009203331</v>
+      </c>
+      <c r="D90">
+        <v>0.08568363658576268</v>
+      </c>
+      <c r="E90">
+        <v>0.1756279379774238</v>
+      </c>
+      <c r="F90">
+        <v>0.04043091863644083</v>
+      </c>
+      <c r="G90">
+        <v>-0.05160594874082876</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1234286318700642</v>
+        <v>-0.1176946208722422</v>
       </c>
       <c r="C91">
-        <v>0.01261724270613024</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01247949355305361</v>
+      </c>
+      <c r="D91">
+        <v>-0.008361491494772463</v>
+      </c>
+      <c r="E91">
+        <v>-0.2037152621562333</v>
+      </c>
+      <c r="F91">
+        <v>-0.0523578188424033</v>
+      </c>
+      <c r="G91">
+        <v>0.03196711719534964</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1744420536150024</v>
+        <v>-0.1749826043528453</v>
       </c>
       <c r="C92">
-        <v>0.2637958885244455</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2751845084652673</v>
+      </c>
+      <c r="D92">
+        <v>0.1179272272765678</v>
+      </c>
+      <c r="E92">
+        <v>0.1369472755182148</v>
+      </c>
+      <c r="F92">
+        <v>0.0993556208106124</v>
+      </c>
+      <c r="G92">
+        <v>0.1045506784796455</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1820560137613557</v>
+        <v>-0.1881923294126115</v>
       </c>
       <c r="C93">
-        <v>0.2277142095624619</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2289352583191967</v>
+      </c>
+      <c r="D93">
+        <v>0.06976716884329903</v>
+      </c>
+      <c r="E93">
+        <v>0.06115664814787433</v>
+      </c>
+      <c r="F93">
+        <v>0.06862361574316923</v>
+      </c>
+      <c r="G93">
+        <v>0.00763429578826625</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.119177050281765</v>
+        <v>-0.1140521412896858</v>
       </c>
       <c r="C94">
-        <v>-0.03606869011838254</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03574181217554624</v>
+      </c>
+      <c r="D94">
+        <v>-0.0187091351371973</v>
+      </c>
+      <c r="E94">
+        <v>-0.16653554531394</v>
+      </c>
+      <c r="F94">
+        <v>0.01616894314524637</v>
+      </c>
+      <c r="G94">
+        <v>0.03288271720908396</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1220822777215072</v>
+        <v>-0.1211641823670049</v>
       </c>
       <c r="C95">
-        <v>-0.1015971375271524</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1125578828817602</v>
+      </c>
+      <c r="D95">
+        <v>0.05213866207226266</v>
+      </c>
+      <c r="E95">
+        <v>0.05290827401873112</v>
+      </c>
+      <c r="F95">
+        <v>0.06599292792944585</v>
+      </c>
+      <c r="G95">
+        <v>0.08002061298866152</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>-0.1256276575963327</v>
+        <v>-0.1222229999754691</v>
       </c>
       <c r="C96">
-        <v>-0.1086342598069138</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1121826679609364</v>
+      </c>
+      <c r="D96">
+        <v>-0.03120571282139041</v>
+      </c>
+      <c r="E96">
+        <v>0.01864616055407739</v>
+      </c>
+      <c r="F96">
+        <v>0.05156401585448743</v>
+      </c>
+      <c r="G96">
+        <v>-0.0237546446661332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>-0.1980880298709847</v>
+        <v>-0.203296403683764</v>
       </c>
       <c r="C97">
-        <v>-0.02742745440836829</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.01937244861099094</v>
+      </c>
+      <c r="D97">
+        <v>-0.2508943809241103</v>
+      </c>
+      <c r="E97">
+        <v>0.1611142310466652</v>
+      </c>
+      <c r="F97">
+        <v>-0.78037468141744</v>
+      </c>
+      <c r="G97">
+        <v>0.3472462290533819</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1983537251100202</v>
+        <v>-0.2051952284229327</v>
       </c>
       <c r="C98">
-        <v>-0.01181904211434573</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.01425150162288862</v>
+      </c>
+      <c r="D98">
+        <v>-0.0553420806934987</v>
+      </c>
+      <c r="E98">
+        <v>0.1126740220234371</v>
+      </c>
+      <c r="F98">
+        <v>-0.1344393735762057</v>
+      </c>
+      <c r="G98">
+        <v>-0.3153071706009968</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>-0.05097612569274609</v>
+        <v>-0.05100139181408548</v>
       </c>
       <c r="C99">
-        <v>-0.05725253065732272</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.05655235146244857</v>
+      </c>
+      <c r="D99">
+        <v>0.0007022423007423328</v>
+      </c>
+      <c r="E99">
+        <v>0.03731253644669023</v>
+      </c>
+      <c r="F99">
+        <v>0.03939984924606841</v>
+      </c>
+      <c r="G99">
+        <v>0.009295137964721228</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>-0.1152529034819269</v>
+        <v>-0.110083596356339</v>
       </c>
       <c r="C100">
-        <v>-0.2758481592737496</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.2651472194076182</v>
+      </c>
+      <c r="D100">
+        <v>-0.07604543461831381</v>
+      </c>
+      <c r="E100">
+        <v>0.3294382291277537</v>
+      </c>
+      <c r="F100">
+        <v>-0.1636150320472471</v>
+      </c>
+      <c r="G100">
+        <v>-0.4705425685732444</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.02628690749233506</v>
+        <v>-0.02753585285116298</v>
       </c>
       <c r="C101">
-        <v>-0.05507028043512951</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.05552666631546419</v>
+      </c>
+      <c r="D101">
+        <v>0.04845785237202709</v>
+      </c>
+      <c r="E101">
+        <v>0.02159057864112141</v>
+      </c>
+      <c r="F101">
+        <v>0.04504884632388386</v>
+      </c>
+      <c r="G101">
+        <v>0.04172314066055704</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
